--- a/results/FrequencyTables/26990633_LTR-S.xlsx
+++ b/results/FrequencyTables/26990633_LTR-S.xlsx
@@ -465,28 +465,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0117044623262619</v>
       </c>
       <c r="C2">
-        <v>0.08</v>
+        <v>0.147768836869056</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00365764447695684</v>
       </c>
       <c r="E2">
-        <v>0.53</v>
+        <v>0.618873445501097</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.000731528895391368</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>0.157278712509144</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.971470373079737</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00585223116313094</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -495,43 +495,43 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.34</v>
+        <v>0.296269202633504</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0182882223847842</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0131675201170446</v>
       </c>
       <c r="O2">
-        <v>0.92</v>
+        <v>0.838332114118508</v>
       </c>
       <c r="P2">
-        <v>0.08</v>
+        <v>0.144111192392099</v>
       </c>
       <c r="Q2">
-        <v>0.01</v>
+        <v>0.0241404535479151</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00585223116313094</v>
       </c>
       <c r="S2">
-        <v>0.4</v>
+        <v>0.283833211411851</v>
       </c>
       <c r="T2">
-        <v>0.91</v>
+        <v>0.817117776152158</v>
       </c>
       <c r="U2">
-        <v>0.01</v>
+        <v>0.0153621068032187</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0182882223847842</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0146305779078274</v>
       </c>
       <c r="X2">
-        <v>0.92</v>
+        <v>0.843452816386247</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.87</v>
+        <v>0.836137527432334</v>
       </c>
       <c r="C3">
-        <v>0.92</v>
+        <v>0.837600585223116</v>
       </c>
       <c r="D3">
-        <v>0.11</v>
+        <v>0.0541331382589612</v>
       </c>
       <c r="E3">
-        <v>0.07</v>
+        <v>0.134601316752012</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0153621068032187</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00365764447695684</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.991221653255304</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.999268471104609</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0131675201170446</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0021945866861741</v>
       </c>
       <c r="N3">
-        <v>0.92</v>
+        <v>0.835405998536942</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0124359912216533</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0131675201170446</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00146305779078274</v>
       </c>
       <c r="R3">
-        <v>0.08</v>
+        <v>0.133138258961229</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000731528895391368</v>
       </c>
       <c r="T3">
-        <v>0.09</v>
+        <v>0.137527432333577</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00585223116313094</v>
       </c>
       <c r="V3">
-        <v>0.08</v>
+        <v>0.138258961228969</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00365764447695684</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00585223116313094</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08</v>
+        <v>0.144842721287491</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0109729334308705</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0.0212143379663497</v>
       </c>
       <c r="E4">
-        <v>0.39</v>
+        <v>0.217995610826628</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00146305779078274</v>
       </c>
       <c r="G4">
-        <v>0.95</v>
+        <v>0.83979517190929</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00438917337234821</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.994147768836869</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.000731528895391368</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>0.0021945866861741</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.975128017556694</v>
       </c>
       <c r="N4">
-        <v>0.08</v>
+        <v>0.134601316752012</v>
       </c>
       <c r="O4">
-        <v>0.08</v>
+        <v>0.146305779078274</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00804681784930505</v>
       </c>
       <c r="Q4">
-        <v>0.99</v>
+        <v>0.967081199707388</v>
       </c>
       <c r="R4">
-        <v>0.92</v>
+        <v>0.84491587417703</v>
       </c>
       <c r="S4">
-        <v>0.52</v>
+        <v>0.57205559619605</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0321872713972202</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00292611558156547</v>
       </c>
       <c r="V4">
-        <v>0.92</v>
+        <v>0.814923189465984</v>
       </c>
       <c r="W4">
-        <v>0.92</v>
+        <v>0.833942940746159</v>
       </c>
       <c r="X4">
-        <v>0.08</v>
+        <v>0.149231894659839</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>0.00731528895391368</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00365764447695684</v>
       </c>
       <c r="D5">
-        <v>0.88</v>
+        <v>0.920994879297732</v>
       </c>
       <c r="E5">
-        <v>0.01</v>
+        <v>0.0285296269202634</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.982443306510607</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0021945866861741</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0204828090709583</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00804681784930505</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.000731528895391368</v>
       </c>
       <c r="L5">
-        <v>0.65</v>
+        <v>0.688368690563277</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00365764447695684</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0168251645940015</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00292611558156547</v>
       </c>
       <c r="P5">
-        <v>0.92</v>
+        <v>0.834674469641551</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00731528895391368</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0160936356986101</v>
       </c>
       <c r="S5">
-        <v>0.08</v>
+        <v>0.142648134601317</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0131675201170446</v>
       </c>
       <c r="U5">
-        <v>0.99</v>
+        <v>0.975859546452085</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.027798098024872</v>
       </c>
       <c r="W5">
-        <v>0.08</v>
+        <v>0.147768836869056</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00146305779078274</v>
       </c>
     </row>
   </sheetData>
